--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenvi\Desktop\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work Station\Other\dutylog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,13 +120,19 @@
   </si>
   <si>
     <t>徐维英</t>
+  </si>
+  <si>
+    <t>吴晨悦</t>
+  </si>
+  <si>
+    <t>王名珺</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +162,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -179,17 +191,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -474,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -484,231 +499,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="15.6">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15.6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15.6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15.6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15.6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15.6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -723,117 +746,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -843,107 +872,124 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
     </row>

--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>王名珺</t>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+  </si>
+  <si>
+    <t>蔡帅</t>
   </si>
 </sst>
 </file>
@@ -201,11 +207,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,7 +496,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -499,16 +505,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
@@ -608,7 +614,9 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
@@ -620,7 +628,7 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -629,7 +637,9 @@
       <c r="F7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
@@ -651,7 +661,7 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -663,7 +673,9 @@
       <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
@@ -739,6 +751,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -746,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -756,16 +769,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
@@ -840,6 +853,9 @@
       <c r="F6" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
@@ -859,11 +875,17 @@
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -978,7 +1000,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1">
@@ -990,6 +1012,22 @@
         <v>27</v>
       </c>
       <c r="B13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
     </row>

--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,26 @@
   </si>
   <si>
     <t>蔡帅</t>
+  </si>
+  <si>
+    <t>张馨月</t>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+  </si>
+  <si>
+    <t>常澳</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
   </si>
 </sst>
 </file>
@@ -495,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -612,19 +632,25 @@
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -760,7 +786,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -816,6 +842,9 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
@@ -836,6 +865,9 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
@@ -844,11 +876,17 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>21</v>
@@ -866,6 +904,15 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -900,10 +947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -911,123 +958,151 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1">
         <v>3</v>
       </c>
     </row>

--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,13 +152,20 @@
   </si>
   <si>
     <t>兰森</t>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁霆霄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +201,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -515,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -605,7 +622,9 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
@@ -666,7 +685,9 @@
       <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="15.6">
@@ -785,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -913,6 +934,9 @@
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -947,10 +971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1083,8 +1107,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
+      <c r="A15" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -1106,8 +1130,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,40 @@
   </si>
   <si>
     <t>丁霆霄</t>
+  </si>
+  <si>
+    <t>韩康泽</t>
+  </si>
+  <si>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁霆霄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -244,11 +278,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,7 +567,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -542,16 +576,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
@@ -591,7 +625,7 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -609,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -617,8 +651,12 @@
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
@@ -711,11 +749,11 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>23</v>
@@ -723,7 +761,9 @@
       <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.6">
@@ -806,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -816,16 +856,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
@@ -883,6 +923,9 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
@@ -915,11 +958,17 @@
       <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -949,8 +998,11 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>28</v>
@@ -971,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -997,12 +1049,6 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
@@ -1011,12 +1057,6 @@
       <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1033,10 +1073,16 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1107,7 +1153,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="1">
@@ -1131,8 +1177,43 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3" t="s">
-        <v>37</v>
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,7 +77,128 @@
     <t>王康泽</t>
   </si>
   <si>
-    <t>18级Android实验室值班表(A)</t>
+    <t>下午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈抒菡</t>
+  </si>
+  <si>
+    <t>张世杰</t>
+  </si>
+  <si>
+    <t>钟杰</t>
+  </si>
+  <si>
+    <t>许志茹</t>
+  </si>
+  <si>
+    <t>张焱梁</t>
+  </si>
+  <si>
+    <t>任岳鹏</t>
+  </si>
+  <si>
+    <t>卢瑞峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐维英</t>
+  </si>
+  <si>
+    <t>吴晨悦</t>
+  </si>
+  <si>
+    <t>王名珺</t>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+  </si>
+  <si>
+    <t>蔡帅</t>
+  </si>
+  <si>
+    <t>张馨月</t>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+  </si>
+  <si>
+    <t>常澳</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁霆霄</t>
+  </si>
+  <si>
+    <t>韩康泽</t>
+  </si>
+  <si>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁霆霄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁钰涵</t>
+  </si>
+  <si>
+    <t>梁钰涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈抒菡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;无&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18级Android实验室值班表 (A)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -85,113 +206,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;无&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢瑞峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张焱梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>下午 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>孙雨轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>下午 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈抒菡</t>
-  </si>
-  <si>
-    <t>张世杰</t>
-  </si>
-  <si>
-    <t>钟杰</t>
-  </si>
-  <si>
-    <t>许志茹</t>
-  </si>
-  <si>
-    <t>张焱梁</t>
-  </si>
-  <si>
-    <t>任岳鹏</t>
-  </si>
-  <si>
-    <t>卢瑞峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐维英</t>
-  </si>
-  <si>
-    <t>吴晨悦</t>
-  </si>
-  <si>
-    <t>王名珺</t>
-  </si>
-  <si>
-    <t>闫晋梁</t>
-  </si>
-  <si>
-    <t>蔡帅</t>
-  </si>
-  <si>
-    <t>张馨月</t>
-  </si>
-  <si>
-    <t>孙雨轩</t>
-  </si>
-  <si>
-    <t>常澳</t>
-  </si>
-  <si>
-    <t>ERROR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰森</t>
-  </si>
-  <si>
-    <t>闫晋梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁霆霄</t>
-  </si>
-  <si>
-    <t>韩康泽</t>
-  </si>
-  <si>
-    <t>许志茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇</t>
-  </si>
-  <si>
-    <t>张宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王康泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁霆霄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙雨轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩康泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张世杰</t>
+    <t>晚自习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,17 +309,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF24292E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF24292E"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,13 +357,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -567,7 +655,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A2" sqref="A2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -575,9 +663,9 @@
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6">
+    <row r="1" spans="1:9" ht="30" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -589,185 +677,189 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
-        <v>40</v>
+      <c r="H9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.6">
-      <c r="A10" s="1"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -846,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -855,9 +947,9 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="30" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -868,147 +960,177 @@
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1023,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1034,23 +1156,20 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -1058,69 +1177,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1128,41 +1241,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1170,15 +1283,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>43</v>
+      <c r="A18" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -1186,33 +1299,49 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1">
         <v>3</v>
       </c>
     </row>

--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -15,6 +15,7 @@
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
     <sheet name="B Week" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="PRINT" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,12 +27,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>上午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿坤</t>
+  </si>
+  <si>
+    <t>王泽昊</t>
+  </si>
+  <si>
+    <t>王康泽</t>
+  </si>
+  <si>
+    <t>陈抒菡</t>
+  </si>
+  <si>
+    <t>张世杰</t>
+  </si>
+  <si>
+    <t>钟杰</t>
+  </si>
+  <si>
+    <t>许志茹</t>
+  </si>
+  <si>
+    <t>张焱梁</t>
+  </si>
+  <si>
+    <t>任岳鹏</t>
+  </si>
+  <si>
+    <t>卢瑞峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐维英</t>
+  </si>
+  <si>
+    <t>吴晨悦</t>
+  </si>
+  <si>
+    <t>王名珺</t>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+  </si>
+  <si>
+    <t>蔡帅</t>
+  </si>
+  <si>
+    <t>张馨月</t>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+  </si>
+  <si>
+    <t>常澳</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁霆霄</t>
+  </si>
+  <si>
+    <t>韩康泽</t>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>王康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁霆霄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁钰涵</t>
+  </si>
+  <si>
+    <t>梁钰涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>周二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,217 +175,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;无&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢瑞峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张焱梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚自习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;无&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>上午 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耿坤</t>
-  </si>
-  <si>
-    <t>王泽昊</t>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈抒菡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晚自习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王康泽</t>
-  </si>
-  <si>
-    <t>下午 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈抒菡</t>
-  </si>
-  <si>
-    <t>张世杰</t>
-  </si>
-  <si>
-    <t>钟杰</t>
+    <t>18级Android实验室值班表修正案 (B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18级Android实验室值班表修正案 (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任岳鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任岳鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晨悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁钰涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐维英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张馨月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张焱梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>许志茹</t>
-  </si>
-  <si>
-    <t>张焱梁</t>
-  </si>
-  <si>
-    <t>任岳鹏</t>
-  </si>
-  <si>
-    <t>卢瑞峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐维英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吴晨悦</t>
-  </si>
-  <si>
-    <t>王名珺</t>
-  </si>
-  <si>
-    <t>闫晋梁</t>
-  </si>
-  <si>
-    <t>蔡帅</t>
-  </si>
-  <si>
-    <t>张馨月</t>
-  </si>
-  <si>
-    <t>孙雨轩</t>
-  </si>
-  <si>
-    <t>常澳</t>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰森</t>
-  </si>
-  <si>
-    <t>闫晋梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁霆霄</t>
-  </si>
-  <si>
-    <t>韩康泽</t>
-  </si>
-  <si>
-    <t>许志茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇</t>
-  </si>
-  <si>
-    <t>张宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王康泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁霆霄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙雨轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩康泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张世杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁钰涵</t>
-  </si>
-  <si>
-    <t>梁钰涵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈抒菡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许志茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;无&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18级Android实验室值班表 (A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18级Android实验室值班表(B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;无&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢瑞峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张世杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张焱梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙雨轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚自习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +381,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,12 +404,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -357,19 +443,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,211 +741,210 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="1" max="8" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+    <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.6">
-      <c r="A3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.049999999999997" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.6">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>36</v>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15.6">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -939,198 +1024,197 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="8" width="9.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>43</v>
+      <c r="H9" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1232,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1158,12 +1242,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1171,7 +1255,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -1179,7 +1263,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1187,7 +1271,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -1195,7 +1279,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -1203,7 +1287,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
@@ -1211,7 +1295,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -1219,7 +1303,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -1227,7 +1311,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1235,7 +1319,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -1243,7 +1327,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
@@ -1251,7 +1335,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>3</v>
@@ -1259,7 +1343,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
@@ -1267,7 +1351,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
@@ -1275,7 +1359,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
@@ -1283,7 +1367,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1291,7 +1375,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -1299,7 +1383,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -1307,7 +1391,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -1315,7 +1399,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1323,7 +1407,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1331,7 +1415,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
@@ -1339,7 +1423,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1350,4 +1434,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A Week" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="82">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,27 +307,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>张馨月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张焱梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晨悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>徐维英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张馨月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张焱梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许志茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴晨悦</t>
+    <t>修订号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +461,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +751,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -750,16 +760,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="34.049999999999997" customHeight="1">
@@ -866,16 +876,16 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -890,7 +900,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -1023,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1034,16 +1044,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A2" s="4"/>
@@ -1109,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>45</v>
@@ -1143,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>33</v>
@@ -1438,13 +1448,406 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="8" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34.049999999999997" customHeight="1"/>
+    <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1"/>
+    <row r="12" spans="1:8" ht="34.049999999999997" customHeight="1"/>
+    <row r="13" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="34.049999999999997" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="G28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A13:H13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/18级Android实验室值班表.xlsx
+++ b/18级Android实验室值班表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="84">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,147 +191,159 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>下午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙雨轩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚自习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;无&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王康泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈抒菡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚自习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18级Android实验室值班表修正案 (B)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18级Android实验室值班表修正案 (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任岳鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫晋梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任岳鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晨悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁钰涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张馨月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张焱梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>兰森</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙雨轩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚自习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;无&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王康泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许志茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈抒菡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚自习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18级Android实验室值班表修正案 (B)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18级Android实验室值班表修正案 (A)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任岳鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫晋梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任岳鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴晨悦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梁钰涵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张宇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张馨月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张焱梁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许志茹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴晨悦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>徐维英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修订号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙雨轩
+许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡帅
+许志茹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张世杰
+卢瑞峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰森
+卢瑞峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +411,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF24292E"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,11 +481,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +773,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -760,16 +782,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="34.049999999999997" customHeight="1">
@@ -778,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="34.049999999999997" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>31</v>
@@ -811,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>12</v>
@@ -826,10 +848,10 @@
     </row>
     <row r="4" spans="1:9" ht="34.049999999999997" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -841,10 +863,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
@@ -864,10 +886,10 @@
     </row>
     <row r="6" spans="1:9" ht="34.049999999999997" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -876,22 +898,22 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="34.049999999999997" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -900,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -908,8 +930,8 @@
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
+      <c r="G7" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
@@ -928,7 +950,7 @@
     </row>
     <row r="9" spans="1:9" ht="34.049999999999997" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -940,16 +962,16 @@
         <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -1034,7 +1056,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1044,16 +1066,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A2" s="4"/>
@@ -1113,19 +1135,19 @@
         <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>46</v>
+      <c r="G4" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>2</v>
@@ -1141,10 +1163,10 @@
     </row>
     <row r="6" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
@@ -1153,10 +1175,10 @@
         <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>16</v>
@@ -1167,7 +1189,7 @@
     </row>
     <row r="7" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
@@ -1184,8 +1206,8 @@
       <c r="F7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
+      <c r="G7" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
@@ -1203,7 +1225,7 @@
     </row>
     <row r="9" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -1224,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1264,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1260,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1450,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1460,16 +1482,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="A1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A2" s="7"/>
@@ -1538,10 +1560,10 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>23</v>
@@ -1559,10 +1581,10 @@
     </row>
     <row r="6" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -1571,21 +1593,21 @@
         <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>19</v>
@@ -1594,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
@@ -1602,8 +1624,8 @@
       <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
+      <c r="G7" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>23</v>
@@ -1620,7 +1642,7 @@
     </row>
     <row r="9" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>14</v>
@@ -1632,32 +1654,32 @@
         <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.049999999999997" customHeight="1"/>
     <row r="11" spans="1:8" ht="34.049999999999997" customHeight="1"/>
     <row r="12" spans="1:8" ht="34.049999999999997" customHeight="1"/>
     <row r="13" spans="1:8" ht="34.049999999999997" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="A13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A14" s="7"/>
@@ -1717,19 +1739,19 @@
         <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>46</v>
+      <c r="G16" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>2</v>
@@ -1747,7 +1769,7 @@
     </row>
     <row r="18" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>28</v>
@@ -1759,10 +1781,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>16</v>
@@ -1773,7 +1795,7 @@
     </row>
     <row r="19" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>18</v>
@@ -1790,8 +1812,8 @@
       <c r="F19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
+      <c r="G19" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>23</v>
@@ -1809,7 +1831,7 @@
     </row>
     <row r="21" spans="1:8" ht="34.049999999999997" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>14</v>
@@ -1830,15 +1852,15 @@
         <v>15</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="G28" s="9" t="s">
-        <v>81</v>
+      <c r="G28" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
